--- a/data/metadata/Informe-04-040003-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-04-040003-A-TC-TM-TP.xlsx
@@ -67,7 +67,7 @@
     <t>provincia-codigo</t>
   </si>
   <si>
-    <t>porcentaje-superficie-regada-sobre-sau</t>
+    <t>superficie-regada-sobre-sau</t>
   </si>
   <si>
     <t>municipio-codigo</t>
@@ -94,7 +94,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:porcentaje-superficie-regada-sobre-sau</t>
+    <t>iaest-measure:superficie-regada-sobre-sau</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
@@ -148,20 +148,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -171,15 +173,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -222,7 +221,6 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -261,7 +259,6 @@
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -300,7 +297,6 @@
       <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -339,7 +335,6 @@
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -378,7 +373,6 @@
       <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
